--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/105.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/105.xlsx
@@ -479,13 +479,13 @@
         <v>-7.618492584133787</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.383004223396293</v>
+        <v>-8.556346313020747</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.230407425955545</v>
+        <v>-2.139559936536808</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.954041646382223</v>
+        <v>-5.795847351145647</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-7.617200770040111</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.068072061892451</v>
+        <v>-9.264155481552983</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.141955827956844</v>
+        <v>-2.059565966173861</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.869530831538881</v>
+        <v>-5.722032947723996</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-7.577204331236572</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.636840974245557</v>
+        <v>-9.846789142615476</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.238472284506048</v>
+        <v>-2.150845501586376</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.720645163622772</v>
+        <v>-5.572453387757275</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.526199595836021</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.28510634945362</v>
+        <v>-10.504611898898</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.141026274455081</v>
+        <v>-2.043632633615481</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.592392964985224</v>
+        <v>-5.474077824204546</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.505343635169646</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.95443723993403</v>
+        <v>-11.1936467051552</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.263609505962163</v>
+        <v>-2.181350567207597</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.134254011644703</v>
+        <v>-5.006132736035572</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.539424602340556</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.46451335864768</v>
+        <v>-11.6861660457581</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.050257338853394</v>
+        <v>-1.954748989623003</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.026556728468665</v>
+        <v>-4.950280972112769</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.647287297684191</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.08218202211463</v>
+        <v>-12.29580912758307</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.905142254155703</v>
+        <v>-1.805889506312577</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.601737685860337</v>
+        <v>-4.544406491716419</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.84073091996822</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.68987435081618</v>
+        <v>-12.90551767092225</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.824860253130238</v>
+        <v>-1.724926705539343</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.023489946249822</v>
+        <v>-3.955082663901803</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.109672407147723</v>
       </c>
       <c r="E10" t="n">
-        <v>-13.3155947805308</v>
+        <v>-13.51683656751097</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.729443550019739</v>
+        <v>-1.663746374359957</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.661959095578398</v>
+        <v>-3.585473862377035</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-8.436801266937756</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.17032577155289</v>
+        <v>-14.38159626250982</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.561011073960933</v>
+        <v>-1.486332578551727</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.143464626137521</v>
+        <v>-3.097274981711911</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.800374150405245</v>
       </c>
       <c r="E12" t="n">
-        <v>-14.81831620840127</v>
+        <v>-15.03227062144076</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.424235786173421</v>
+        <v>-1.355173888683316</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.718436106683726</v>
+        <v>-2.686896749138008</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-9.163989251191037</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.56663296192581</v>
+        <v>-15.75410164631649</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.265557075731701</v>
+        <v>-1.186034428271057</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.116831698803571</v>
+        <v>-2.079269881950659</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-9.495509591860076</v>
       </c>
       <c r="E14" t="n">
-        <v>-16.21318324546161</v>
+        <v>-16.41230407938142</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.044349526917897</v>
+        <v>-0.97041729277067</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.412374159798817</v>
+        <v>-1.369784898654682</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-9.764567610472517</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.85631643795572</v>
+        <v>-17.03791977067331</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8279861301555321</v>
+        <v>-0.7422315465422263</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.246010267589004</v>
+        <v>-1.194243302152819</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-9.936573522227009</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.72275194771831</v>
+        <v>-17.87777790566719</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6443011212861154</v>
+        <v>-0.5414872670700406</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.7144627722149254</v>
+        <v>-0.681745107413452</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-9.98980761375622</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.57642246221022</v>
+        <v>-18.7622938856542</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3282267460811646</v>
+        <v>-0.2461903764749091</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.4996311748850423</v>
+        <v>-0.4708935701474536</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-9.907842085504603</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.32987139844871</v>
+        <v>-19.50389428782093</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1854813681978253</v>
+        <v>-0.139658308251784</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.09129534155444795</v>
+        <v>-0.05865623057002486</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-9.677195265757939</v>
       </c>
       <c r="E19" t="n">
-        <v>-20.00057698072749</v>
+        <v>-20.18318842076389</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04957783702252454</v>
+        <v>0.09820264977669516</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05097871342658923</v>
+        <v>0.0758279042201853</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-9.301876608219876</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.51386071363737</v>
+        <v>-20.6415761278584</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1524964296613332</v>
+        <v>0.1832240644308643</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2952025306361473</v>
+        <v>0.3263360267937719</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-8.790961356238649</v>
       </c>
       <c r="E21" t="n">
-        <v>-21.15606435262971</v>
+        <v>-21.29623054685323</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4031747521718622</v>
+        <v>0.4241486213243074</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4328419104112134</v>
+        <v>0.4673794053076868</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-8.159156157708022</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.57669385832869</v>
+        <v>-21.72277777343667</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5221706927003105</v>
+        <v>0.5267922756034398</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5937594046388686</v>
+        <v>0.669878053360664</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-7.439176045286604</v>
       </c>
       <c r="E23" t="n">
-        <v>-21.95400093392439</v>
+        <v>-22.08908731464532</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6643792861671389</v>
+        <v>0.6728630984085775</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6176528573250186</v>
+        <v>0.7148239290163095</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-6.663184148784278</v>
       </c>
       <c r="E24" t="n">
-        <v>-22.25504534546704</v>
+        <v>-22.36998267211455</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8495437252576707</v>
+        <v>0.8631335356073824</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7498589314207684</v>
+        <v>0.890444079335223</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-5.863336553814273</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.41503328619293</v>
+        <v>-22.49421553377969</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8645605966171306</v>
+        <v>0.8628978741562313</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8537987236812318</v>
+        <v>0.9995684235210098</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.079888361754327</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.63993286440811</v>
+        <v>-22.70851034669306</v>
       </c>
       <c r="F26" t="n">
-        <v>1.02998184302234</v>
+        <v>1.023946291412304</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6331541438896223</v>
+        <v>0.8225473967980316</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.338979441579945</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.51399800337354</v>
+        <v>-22.5789358254685</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9958633018168013</v>
+        <v>0.9809904457886005</v>
       </c>
       <c r="G27" t="n">
-        <v>0.522576554088404</v>
+        <v>0.7142871445997988</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.65829334605468</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.61840911853631</v>
+        <v>-22.68535006296605</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9916868572102907</v>
+        <v>0.9828495527921256</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08168016359043687</v>
+        <v>0.2767423836293135</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.057245409468424</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.35284484769473</v>
+        <v>-22.43884818506204</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9530907484328822</v>
+        <v>0.9547141939852563</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1573852862994811</v>
+        <v>0.04849117588666128</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.537940706745055</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.19214992261539</v>
+        <v>-22.2937200080615</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8873804804702591</v>
+        <v>0.8923424632472733</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.6217954527011882</v>
+        <v>-0.4236696337973476</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.095653563622519</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.74030836694174</v>
+        <v>-21.8115828636121</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8852202505013743</v>
+        <v>0.8797083910050076</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.9066185010229388</v>
+        <v>-0.726808813794673</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.728587518303943</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.27350230912</v>
+        <v>-21.33905546944852</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8229401658832834</v>
+        <v>0.8382843448137863</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.32554600735249</v>
+        <v>-1.156563654574331</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.423288452978321</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.05654975872975</v>
+        <v>-21.14731869433144</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7293563851706255</v>
+        <v>0.7373688745097619</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.734719748064954</v>
+        <v>-1.569822193773414</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.16717055742896</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.57055038494204</v>
+        <v>-20.64738911032013</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6771442814378219</v>
+        <v>0.7012603032722813</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.104930795520442</v>
+        <v>-1.971350029626311</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.9551389545926324</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.1815911598172</v>
+        <v>-20.26475346746784</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6216067327832199</v>
+        <v>0.6633319019398008</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.30720687442511</v>
+        <v>-2.166412249665188</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.7784699488879014</v>
       </c>
       <c r="E36" t="n">
-        <v>-19.62143698273395</v>
+        <v>-19.71712862420413</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6377364498842264</v>
+        <v>0.6789510192299801</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.626266294677975</v>
+        <v>-2.496364465882368</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.6326013297349146</v>
       </c>
       <c r="E37" t="n">
-        <v>-19.25565113363897</v>
+        <v>-19.33582839624169</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5560273878490141</v>
+        <v>0.5972026802862426</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.8578036704339</v>
+        <v>-2.725636873246675</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.5187429328757001</v>
       </c>
       <c r="E38" t="n">
-        <v>-18.55906206864209</v>
+        <v>-18.61402355597166</v>
       </c>
       <c r="F38" t="n">
-        <v>0.726751016905122</v>
+        <v>0.7763184754638969</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.917334371455228</v>
+        <v>-2.803902659634514</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.437034565619631</v>
       </c>
       <c r="E39" t="n">
-        <v>-18.08612881309042</v>
+        <v>-18.1787175787871</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8151109687839312</v>
+        <v>0.8793679911311227</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.851349165132929</v>
+        <v>-2.717990968387107</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.3896623366120355</v>
       </c>
       <c r="E40" t="n">
-        <v>-17.4983106001026</v>
+        <v>-17.5730807416317</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7013126724836483</v>
+        <v>0.7668527405093289</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.906677236942063</v>
+        <v>-2.772114548334803</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.3811126163517267</v>
       </c>
       <c r="E41" t="n">
-        <v>-16.93943946869784</v>
+        <v>-17.02825765117611</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8537201698641814</v>
+        <v>0.9325882021827392</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.054698812870619</v>
+        <v>-2.952631219916522</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.415580260275805</v>
       </c>
       <c r="E42" t="n">
-        <v>-16.29565166106164</v>
+        <v>-16.38149789079484</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8314239781247219</v>
+        <v>0.9132901477940349</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.198858159460864</v>
+        <v>-3.100011273005832</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.4955617816442736</v>
       </c>
       <c r="E43" t="n">
-        <v>-15.73531419173861</v>
+        <v>-15.8157925773067</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8534059545959799</v>
+        <v>0.9397365995343216</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.204710418831116</v>
+        <v>-3.123695248846515</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.6226313716145953</v>
       </c>
       <c r="E44" t="n">
-        <v>-15.15264125376759</v>
+        <v>-15.20963204803762</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9275607578915164</v>
+        <v>1.031919503842915</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.351462041384023</v>
+        <v>-3.297940707367047</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.79783892717743</v>
       </c>
       <c r="E45" t="n">
-        <v>-14.62176146583844</v>
+        <v>-14.72450985854031</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8923948324586402</v>
+        <v>0.9988483468647148</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.44268920758517</v>
+        <v>-3.400453438617762</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.018073303536217</v>
       </c>
       <c r="E46" t="n">
-        <v>-14.14571224221044</v>
+        <v>-14.25753360078162</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7019934722314179</v>
+        <v>0.8075828946499387</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.469266582353874</v>
+        <v>-3.433864995469847</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.279030977917579</v>
       </c>
       <c r="E47" t="n">
-        <v>-13.36619653101407</v>
+        <v>-13.49080906946162</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7516394846072432</v>
+        <v>0.8617588438090011</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.345806166556398</v>
+        <v>-3.304264289639601</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.577413013118677</v>
       </c>
       <c r="E48" t="n">
-        <v>-12.79632786522226</v>
+        <v>-12.92067855761297</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6752197129200882</v>
+        <v>0.7834799651183211</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.373574940883699</v>
+        <v>-3.310771164151939</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.905449874065876</v>
       </c>
       <c r="E49" t="n">
-        <v>-12.385648509683</v>
+        <v>-12.50300791235623</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6337040206089748</v>
+        <v>0.7492828700957326</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.503529138890671</v>
+        <v>-3.447271513579774</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.255274838124698</v>
       </c>
       <c r="E50" t="n">
-        <v>-11.83476368301169</v>
+        <v>-11.95577583817776</v>
       </c>
       <c r="F50" t="n">
-        <v>0.586807391829912</v>
+        <v>0.6911530454784688</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.642359918224335</v>
+        <v>-3.606500100740847</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.621947467871365</v>
       </c>
       <c r="E51" t="n">
-        <v>-11.367787425253</v>
+        <v>-11.47555016994325</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5900280983289766</v>
+        <v>0.7017447184774251</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.816134053842565</v>
+        <v>-3.785183849924724</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.995938644019294</v>
       </c>
       <c r="E52" t="n">
-        <v>-10.90272264370921</v>
+        <v>-11.01577467874751</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5364020258892667</v>
+        <v>0.6390849570769243</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.878126107798137</v>
+        <v>-3.831530601984435</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.369320981939347</v>
       </c>
       <c r="E53" t="n">
-        <v>-10.30410328087697</v>
+        <v>-10.41002001086653</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5132941113736201</v>
+        <v>0.6161603348010619</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.032353435273671</v>
+        <v>-3.98804908245727</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.73800908392495</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.873837840286482</v>
+        <v>-9.975604310275219</v>
       </c>
       <c r="F54" t="n">
-        <v>0.4951612719378296</v>
+        <v>0.6139608279236519</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.105316839010611</v>
+        <v>-4.044516184613634</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.093380041107165</v>
       </c>
       <c r="E55" t="n">
-        <v>-9.392001818802438</v>
+        <v>-9.479890447778946</v>
       </c>
       <c r="F55" t="n">
-        <v>0.4075737659266822</v>
+        <v>0.5269755678432239</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.225831486668699</v>
+        <v>-4.152514590755032</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.428838972091325</v>
       </c>
       <c r="E56" t="n">
-        <v>-9.04742550031105</v>
+        <v>-9.171658361976188</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3666079503349213</v>
+        <v>0.5016681464501674</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.490610219339767</v>
+        <v>-4.406754019638512</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.740556435157234</v>
       </c>
       <c r="E57" t="n">
-        <v>-8.532164829672078</v>
+        <v>-8.655926368434915</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3351864235147787</v>
+        <v>0.4727472494727945</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.476745470630378</v>
+        <v>-4.379757691178872</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.021031928683766</v>
       </c>
       <c r="E58" t="n">
-        <v>-8.411218136020214</v>
+        <v>-8.567893724127149</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2885778253982339</v>
+        <v>0.4394797079519686</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.545807368120483</v>
+        <v>-4.441697375923078</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.266722187769846</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.872011643483726</v>
+        <v>-7.995485151584043</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2984101448323702</v>
+        <v>0.4260077283278325</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.780604727283999</v>
+        <v>-4.683918070797852</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.476492034575537</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.77715790939542</v>
+        <v>-7.906051630872213</v>
       </c>
       <c r="F60" t="n">
-        <v>0.4030176445377615</v>
+        <v>0.5536969579431869</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.837700259976766</v>
+        <v>-4.744993663554504</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.646429210316946</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.450753707248347</v>
+        <v>-7.566201633706688</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3569720154434109</v>
+        <v>0.5041425916872536</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.953567140126042</v>
+        <v>-4.855060653544895</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.77626727207474</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.165996120440806</v>
+        <v>-7.286968998698354</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3273703187182683</v>
+        <v>0.474828925624629</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.144950423066394</v>
+        <v>-5.045488198377801</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.865767488055489</v>
       </c>
       <c r="E63" t="n">
-        <v>-6.98604241788128</v>
+        <v>-7.108638741691204</v>
       </c>
       <c r="F63" t="n">
-        <v>0.292348408616651</v>
+        <v>0.4418232301606376</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.089818735799885</v>
+        <v>-4.996261139692911</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.912556247721604</v>
       </c>
       <c r="E64" t="n">
-        <v>-6.767715175692657</v>
+        <v>-6.896425604929665</v>
       </c>
       <c r="F64" t="n">
-        <v>0.090085422014825</v>
+        <v>0.2380153518234878</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.075757602547871</v>
+        <v>-5.003029860262084</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.917589252066363</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.709807920223702</v>
+        <v>-6.844056393562761</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005247299600440074</v>
+        <v>0.150925353320326</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.137343795115351</v>
+        <v>-5.0544302412187</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.879968322330466</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.45008281644954</v>
+        <v>-6.557295684420435</v>
       </c>
       <c r="F66" t="n">
-        <v>0.04578106919842398</v>
+        <v>0.1921791995746049</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.104429745771252</v>
+        <v>-5.022930160581507</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.79910323059529</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.328704076803898</v>
+        <v>-6.445212479792418</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.09209397202779325</v>
+        <v>0.06865332226291943</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.051052427085534</v>
+        <v>-4.993551033004674</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.677270493094479</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.10981386559308</v>
+        <v>-6.234806080823039</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.1269980514038349</v>
+        <v>0.03495373474831652</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.032264972507657</v>
+        <v>-4.986415727955933</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.514196503476821</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.133196718468403</v>
+        <v>-6.252899643350304</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.2026191926176447</v>
+        <v>-0.04917740331261519</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.927251611414173</v>
+        <v>-4.868310064020722</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.312486062141567</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.274174635468109</v>
+        <v>-6.388077670191126</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.2421710395024992</v>
+        <v>-0.07915877682016789</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.857404175753564</v>
+        <v>-4.806907163693027</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.077422237061572</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.294611720204044</v>
+        <v>-6.409745431394183</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.2380862410158806</v>
+        <v>-0.08182960659988001</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.795241921861049</v>
+        <v>-4.757261151317201</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.811077028970658</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.396731682369507</v>
+        <v>-6.527576156969717</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.3411226643802648</v>
+        <v>-0.1972251638468536</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.668770276409975</v>
+        <v>-4.639090025867782</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.519324987918213</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.496966352925761</v>
+        <v>-6.613618771245541</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.3425890022985381</v>
+        <v>-0.1907968431515661</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.426078258632899</v>
+        <v>-4.391776425187577</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.207856263152398</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.790639797968518</v>
+        <v>-6.906441216603586</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.3472236775045091</v>
+        <v>-0.2043211919870691</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.125976492894853</v>
+        <v>-4.098665949167013</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.877795267496638</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.028291279151531</v>
+        <v>-7.137219238794692</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.4801760128622374</v>
+        <v>-0.3418165564308763</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.867796280856016</v>
+        <v>-3.832564893908931</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.535638729281532</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.306620545263785</v>
+        <v>-7.40769312320191</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.5770590538910103</v>
+        <v>-0.4449053490066273</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.510913197693405</v>
+        <v>-3.475014103301392</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.186953122503357</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.818529586375274</v>
+        <v>-7.907099015099551</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.4544234531725622</v>
+        <v>-0.3248882088565245</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.389416627322187</v>
+        <v>-3.350480118670894</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.833719505761922</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.21306613251069</v>
+        <v>-8.306505897892087</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.5422989898462276</v>
+        <v>-0.4202656350584988</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.398358670163086</v>
+        <v>-3.369896003785173</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.483745956803701</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.685632803582791</v>
+        <v>-8.770261449151709</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.5815366214628805</v>
+        <v>-0.4634833267390366</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.133723952823277</v>
+        <v>-3.086290539627703</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.142627393250815</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.263042635811436</v>
+        <v>-9.340928745416864</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.6504414113188849</v>
+        <v>-0.5228307355205809</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.763892582150199</v>
+        <v>-2.711523370783294</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-1.811726971443109</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.841617682992995</v>
+        <v>-9.899551123067633</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.6545523944111868</v>
+        <v>-0.5626182438565864</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.595420829182868</v>
+        <v>-2.562978102741071</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-1.497741126701611</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.73675152058465</v>
+        <v>-10.8069262638163</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.6567649935914386</v>
+        <v>-0.5403089598142852</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.208648018632597</v>
+        <v>-2.16354503534285</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-1.203949961370703</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.55622494005397</v>
+        <v>-11.5941402490836</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.7188486936669036</v>
+        <v>-0.6189544229845337</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.980239703255843</v>
+        <v>-1.925186569806385</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.9297607172143868</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.50759021835083</v>
+        <v>-12.53652420763105</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.6225286216603249</v>
+        <v>-0.5154859536263726</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.745704190149163</v>
+        <v>-1.70844349626161</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.6792976499332664</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.68409073631402</v>
+        <v>-13.68856830388589</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.7195556780203568</v>
+        <v>-0.6092268419731313</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.588203786963198</v>
+        <v>-1.559505459134134</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4531806776026795</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.79975132297171</v>
+        <v>-14.81825074688707</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.7728675351918654</v>
+        <v>-0.675382248232373</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.337512372149827</v>
+        <v>-1.278086409551233</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2495320961885638</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.9328901339231</v>
+        <v>-15.93871620868767</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7973370492030514</v>
+        <v>-0.6987389165020124</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.257151817307313</v>
+        <v>-1.199362392563934</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.0709661702110833</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.28133186510668</v>
+        <v>-17.26741474718592</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9772383825512093</v>
+        <v>-0.8875168311768605</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.095095292732427</v>
+        <v>-1.037842652405559</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.08183977691716962</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.78612187682614</v>
+        <v>-18.73637112602758</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9879871631842664</v>
+        <v>-0.9084776080264639</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.133730678418361</v>
+        <v>-1.081701866925342</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2086271376891221</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.34936902073392</v>
+        <v>-20.28961575056428</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.057625121999407</v>
+        <v>-1.007664894355381</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.060623259350163</v>
+        <v>-1.003632465080129</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.3060464536112402</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.99264941191317</v>
+        <v>-21.93860438578252</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.168307450223359</v>
+        <v>-1.124788635577462</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.08396683531696</v>
+        <v>-0.9977409288013522</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.3724417273494988</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.64684878366241</v>
+        <v>-23.58772394402918</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.299544693908822</v>
+        <v>-1.270165566331988</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.272888765323067</v>
+        <v>-1.193025717988538</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.4075474246848482</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.70398995997147</v>
+        <v>-25.64582085844567</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.316106457003605</v>
+        <v>-1.272103227152564</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.514769060323957</v>
+        <v>-1.420530664469212</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.4101918229905344</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.6901839471812</v>
+        <v>-27.64320876458509</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.320243624701591</v>
+        <v>-1.268673043808032</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.503588233697122</v>
+        <v>-1.379093525975149</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.3814201031393018</v>
       </c>
       <c r="E95" t="n">
-        <v>-29.99881516877697</v>
+        <v>-29.97581199268405</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.627794910756578</v>
+        <v>-1.588557279139925</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.750744726743227</v>
+        <v>-1.630701401987441</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.3221663978255019</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.12623582674041</v>
+        <v>-32.1028267892594</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.648847333726073</v>
+        <v>-1.573344023237839</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.044509817905876</v>
+        <v>-1.888606675666603</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.2380423906753748</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.50587969894969</v>
+        <v>-34.48096504664188</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.775895040502183</v>
+        <v>-1.734824486487688</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.204720327780079</v>
+        <v>-2.042807818536452</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.1291306003883768</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.59776784700068</v>
+        <v>-36.53121967165619</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.998385634994476</v>
+        <v>-1.943646716813219</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.447792022339565</v>
+        <v>-2.260833937759716</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.007721901064962136</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.88697009117933</v>
+        <v>-38.85300865760789</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.044771663962711</v>
+        <v>-2.020838934368036</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.703026466239014</v>
+        <v>-2.536623297120676</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1320089160307421</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.21513502861495</v>
+        <v>-41.19922788066225</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.444518946629133</v>
+        <v>-2.432487120317587</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.881919692268359</v>
+        <v>-2.714953554127827</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2675631223666604</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.5646142350769</v>
+        <v>-43.5445961040319</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.615910283130169</v>
+        <v>-2.609416500920673</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.059385857287956</v>
+        <v>-2.911861788867387</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.4246579180168705</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.89868380109414</v>
+        <v>-45.88519872916716</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.931251489375983</v>
+        <v>-2.951426728055083</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.407300713003985</v>
+        <v>-3.27855100685845</v>
       </c>
     </row>
   </sheetData>
